--- a/REGULAR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ANGCAYA OFELIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ASSESSOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22758A-4D32-4A77-A8CA-B6077B88212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="566">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1810,11 +1809,14 @@
   <si>
     <t>1/11-13/2023</t>
   </si>
+  <si>
+    <t>06/13-16/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2470,7 +2472,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2516,25 +2517,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2841,34 +2842,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A662" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A653" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="F662" sqref="F662"/>
+      <selection pane="bottomLeft" activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2891,7 +2892,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +2914,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2936,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2943,7 +2944,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2956,7 +2957,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -2973,7 +2974,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3017,7 +3018,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>149.67190000000005</v>
+        <v>149.42190000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3027,12 +3028,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.36800000000005</v>
+        <v>236.11800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3052,7 +3053,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
@@ -3070,7 +3071,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34335</v>
       </c>
@@ -3090,7 +3091,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34366</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34394</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34425</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>34455</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3210,7 +3211,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34486</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>34613</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34516</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>34614</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34547</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34578</v>
       </c>
@@ -3312,7 +3313,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>49</v>
@@ -3332,7 +3333,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>34608</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>34639</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34669</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>66</v>
       </c>
@@ -3426,7 +3427,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34700</v>
       </c>
@@ -3448,7 +3449,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>53</v>
@@ -3470,7 +3471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>68</v>
@@ -3494,7 +3495,7 @@
         <v>34851</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>34731</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>71</v>
@@ -3542,7 +3543,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>34759</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>75</v>
@@ -3590,7 +3591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>34790</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>71</v>
@@ -3638,7 +3639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>34820</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>81</v>
@@ -3684,7 +3685,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>83</v>
@@ -3706,7 +3707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>34851</v>
       </c>
@@ -3730,7 +3731,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>68</v>
@@ -3752,7 +3753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>34881</v>
       </c>
@@ -3776,7 +3777,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>68</v>
@@ -3798,7 +3799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>34912</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>34980</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>89</v>
@@ -3844,7 +3845,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>83</v>
@@ -3866,7 +3867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34943</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34973</v>
       </c>
@@ -3912,7 +3913,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35004</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>62</v>
@@ -3960,7 +3961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35034</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>34831</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>96</v>
@@ -4006,7 +4007,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -4028,7 +4029,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>98</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35065</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>62</v>
@@ -4094,7 +4095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35096</v>
       </c>
@@ -4114,7 +4115,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35125</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>68</v>
@@ -4162,7 +4163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>35156</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>35186</v>
       </c>
@@ -4206,7 +4207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>105</v>
@@ -4226,7 +4227,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>68</v>
@@ -4246,7 +4247,7 @@
         <v>35100</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35217</v>
       </c>
@@ -4270,7 +4271,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>35247</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>35278</v>
       </c>
@@ -4316,7 +4317,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35309</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35339</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35370</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>113</v>
@@ -4414,7 +4415,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>35400</v>
       </c>
@@ -4438,7 +4439,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>83</v>
@@ -4460,7 +4461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>116</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35431</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>105</v>
@@ -4522,7 +4523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -4544,7 +4545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35462</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35490</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35521</v>
       </c>
@@ -4616,7 +4617,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35551</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>35647</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>68</v>
@@ -4664,7 +4665,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>122</v>
@@ -4686,7 +4687,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35582</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>35612</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35643</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>128</v>
@@ -4784,7 +4785,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>35674</v>
       </c>
@@ -4804,7 +4805,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>35704</v>
       </c>
@@ -4828,7 +4829,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>35735</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>131</v>
@@ -4874,7 +4875,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35765</v>
       </c>
@@ -4896,7 +4897,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>134</v>
@@ -4918,7 +4919,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
         <v>135</v>
       </c>
@@ -4936,7 +4937,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>35796</v>
       </c>
@@ -4956,7 +4957,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>35827</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>35855</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>35886</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>35916</v>
       </c>
@@ -5057,7 +5058,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>122</v>
@@ -5077,7 +5078,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>35947</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>35860</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>35977</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5149,7 +5150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>36008</v>
       </c>
@@ -5175,7 +5176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>89</v>
@@ -5197,7 +5198,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36039</v>
       </c>
@@ -5215,7 +5216,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>36069</v>
       </c>
@@ -5239,7 +5240,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36100</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36130</v>
       </c>
@@ -5289,7 +5290,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>134</v>
@@ -5309,7 +5310,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>145</v>
       </c>
@@ -5327,7 +5328,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>36161</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36192</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>36220</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>68</v>
@@ -5425,7 +5426,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>36251</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>36281</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>153</v>
@@ -5497,7 +5498,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>36312</v>
       </c>
@@ -5521,7 +5522,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36342</v>
       </c>
@@ -5545,7 +5546,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>36373</v>
       </c>
@@ -5569,7 +5570,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>36404</v>
       </c>
@@ -5593,7 +5594,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36434</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>36474</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>113</v>
@@ -5641,7 +5642,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>36465</v>
       </c>
@@ -5665,7 +5666,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>105</v>
@@ -5685,7 +5686,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>36495</v>
       </c>
@@ -5709,7 +5710,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>161</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36526</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>36557</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36586</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15" t="s">
         <v>68</v>
@@ -5829,7 +5830,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>36617</v>
       </c>
@@ -5851,7 +5852,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36647</v>
       </c>
@@ -5873,7 +5874,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>36678</v>
       </c>
@@ -5893,7 +5894,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36708</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>36739</v>
       </c>
@@ -5933,7 +5934,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>36770</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41">
         <v>36800</v>
       </c>
@@ -5975,7 +5976,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="15"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41">
         <v>36831</v>
       </c>
@@ -6001,7 +6002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>36861</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>36719</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23" t="s">
         <v>168</v>
       </c>
@@ -6043,7 +6044,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>36892</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>36923</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>151</v>
@@ -6113,7 +6114,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>36951</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>37014</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>113</v>
@@ -6161,7 +6162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>78</v>
@@ -6183,7 +6184,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>36982</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="15" t="s">
         <v>173</v>
@@ -6229,7 +6230,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>37012</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>37043</v>
       </c>
@@ -6275,7 +6276,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>37073</v>
       </c>
@@ -6295,7 +6296,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>37104</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>83</v>
@@ -6343,7 +6344,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>37135</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>178</v>
@@ -6391,7 +6392,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37165</v>
       </c>
@@ -6415,7 +6416,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>105</v>
@@ -6435,7 +6436,7 @@
         <v>36933</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37196</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>180</v>
@@ -6481,7 +6482,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>37226</v>
       </c>
@@ -6505,7 +6506,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="51" t="s">
         <v>183</v>
       </c>
@@ -6523,7 +6524,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37257</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>37288</v>
       </c>
@@ -6573,7 +6574,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37316</v>
       </c>
@@ -6595,7 +6596,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>37347</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>37564</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>188</v>
@@ -6639,7 +6640,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37377</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>68</v>
@@ -6687,7 +6688,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>37408</v>
       </c>
@@ -6707,7 +6708,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>37438</v>
       </c>
@@ -6733,7 +6734,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="41"/>
       <c r="B171" s="15" t="s">
         <v>137</v>
@@ -6753,7 +6754,7 @@
       <c r="J171" s="12"/>
       <c r="K171" s="15"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>37469</v>
       </c>
@@ -6777,7 +6778,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37500</v>
       </c>
@@ -6803,7 +6804,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>151</v>
@@ -6823,7 +6824,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>105</v>
@@ -6843,7 +6844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37530</v>
       </c>
@@ -6867,7 +6868,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>37561</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="15" t="s">
         <v>78</v>
@@ -6913,7 +6914,7 @@
       <c r="J178" s="12"/>
       <c r="K178" s="15"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>37591</v>
       </c>
@@ -6933,7 +6934,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
         <v>196</v>
       </c>
@@ -6953,7 +6954,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>37622</v>
       </c>
@@ -6975,7 +6976,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37653</v>
       </c>
@@ -6995,7 +6996,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>37681</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
         <v>37712</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37742</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37773</v>
       </c>
@@ -7099,7 +7100,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>83</v>
@@ -7123,7 +7124,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>188</v>
@@ -7141,7 +7142,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>37803</v>
       </c>
@@ -7163,7 +7164,7 @@
       <c r="J189" s="12"/>
       <c r="K189" s="15"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37834</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37865</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>68</v>
@@ -7237,7 +7238,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>78</v>
@@ -7257,7 +7258,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37895</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>37874</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37926</v>
       </c>
@@ -7307,7 +7308,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37956</v>
       </c>
@@ -7333,7 +7334,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>68</v>
@@ -7355,7 +7356,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>68</v>
@@ -7377,7 +7378,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="15" t="s">
         <v>204</v>
@@ -7395,7 +7396,7 @@
       <c r="J199" s="12"/>
       <c r="K199" s="15"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>208</v>
       </c>
@@ -7413,7 +7414,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37987</v>
       </c>
@@ -7437,7 +7438,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38018</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>210</v>
@@ -7483,7 +7484,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>62</v>
@@ -7507,7 +7508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>38047</v>
       </c>
@@ -7527,7 +7528,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="15" t="s">
         <v>215</v>
@@ -7545,7 +7546,7 @@
       <c r="J206" s="12"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38078</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38108</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>38051</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>68</v>
@@ -7619,7 +7620,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>68</v>
@@ -7639,7 +7640,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>217</v>
@@ -7659,7 +7660,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="15"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38139</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>38052</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>219</v>
@@ -7705,7 +7706,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38169</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38200</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>38146</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>68</v>
@@ -7779,7 +7780,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>222</v>
@@ -7801,7 +7802,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>38231</v>
       </c>
@@ -7827,7 +7828,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>225</v>
@@ -7847,7 +7848,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
         <v>38261</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>227</v>
@@ -7893,7 +7894,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>38292</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>228</v>
@@ -7939,7 +7940,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>38322</v>
       </c>
@@ -7957,7 +7958,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>113</v>
@@ -7979,7 +7980,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>229</v>
@@ -8001,7 +8002,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="51" t="s">
         <v>231</v>
       </c>
@@ -8019,7 +8020,7 @@
       <c r="J227" s="12"/>
       <c r="K227" s="15"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>38353</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>105</v>
@@ -8065,7 +8066,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>235</v>
@@ -8085,7 +8086,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38384</v>
       </c>
@@ -8109,7 +8110,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>38412</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>38386</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>68</v>
@@ -8157,7 +8158,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>237</v>
@@ -8177,7 +8178,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38443</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>38537</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>68</v>
@@ -8223,7 +8224,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>239</v>
@@ -8241,7 +8242,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41">
         <v>38473</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>241</v>
@@ -8287,7 +8288,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39600</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>137</v>
@@ -8331,7 +8332,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>242</v>
@@ -8351,7 +8352,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38534</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>38479</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>68</v>
@@ -8399,7 +8400,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>245</v>
@@ -8419,7 +8420,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>38565</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>38694</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>232</v>
@@ -8465,7 +8466,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>247</v>
@@ -8485,7 +8486,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38596</v>
       </c>
@@ -8509,7 +8510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>249</v>
@@ -8531,7 +8532,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>250</v>
@@ -8553,7 +8554,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>254</v>
@@ -8573,7 +8574,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -8595,7 +8596,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>105</v>
@@ -8615,7 +8616,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>38626</v>
       </c>
@@ -8637,7 +8638,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>38657</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>137</v>
@@ -8683,7 +8684,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>227</v>
@@ -8703,7 +8704,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>38687</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>68</v>
@@ -8749,7 +8750,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>68</v>
@@ -8771,7 +8772,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>260</v>
@@ -8791,7 +8792,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
         <v>264</v>
       </c>
@@ -8809,7 +8810,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41">
         <v>38718</v>
       </c>
@@ -8833,7 +8834,7 @@
         <v>38808</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>68</v>
@@ -8855,7 +8856,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>105</v>
@@ -8875,7 +8876,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>105</v>
@@ -8893,7 +8894,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>265</v>
@@ -8913,7 +8914,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>38749</v>
       </c>
@@ -8937,7 +8938,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>38777</v>
       </c>
@@ -8961,7 +8962,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>38808</v>
       </c>
@@ -8985,7 +8986,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>271</v>
@@ -9007,7 +9008,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>137</v>
@@ -9029,7 +9030,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>38838</v>
       </c>
@@ -9053,7 +9054,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>38869</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>275</v>
@@ -9099,7 +9100,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>241</v>
@@ -9119,7 +9120,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>137</v>
@@ -9141,7 +9142,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>137</v>
@@ -9163,7 +9164,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>242</v>
@@ -9181,7 +9182,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -9197,7 +9198,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>38899</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>38844</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>68</v>
@@ -9245,7 +9246,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>245</v>
@@ -9263,7 +9264,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>38930</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>281</v>
@@ -9309,7 +9310,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>38961</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>282</v>
@@ -9355,7 +9356,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>38991</v>
       </c>
@@ -9379,7 +9380,7 @@
       <c r="J289" s="12"/>
       <c r="K289" s="15"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39022</v>
       </c>
@@ -9403,7 +9404,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>285</v>
@@ -9423,7 +9424,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39052</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>38941</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>83</v>
@@ -9471,7 +9472,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="41"/>
       <c r="B294" s="15" t="s">
         <v>287</v>
@@ -9489,7 +9490,7 @@
       <c r="J294" s="12"/>
       <c r="K294" s="15"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="48" t="s">
         <v>289</v>
       </c>
@@ -9507,7 +9508,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39083</v>
       </c>
@@ -9529,7 +9530,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>290</v>
@@ -9549,7 +9550,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>291</v>
@@ -9571,7 +9572,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39114</v>
       </c>
@@ -9595,7 +9596,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>68</v>
@@ -9617,7 +9618,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>294</v>
@@ -9639,7 +9640,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="15"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39142</v>
       </c>
@@ -9663,7 +9664,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="15"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>39173</v>
       </c>
@@ -9687,7 +9688,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="15"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>39203</v>
       </c>
@@ -9713,7 +9714,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>62</v>
@@ -9735,7 +9736,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>300</v>
@@ -9755,7 +9756,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39234</v>
       </c>
@@ -9779,7 +9780,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>39264</v>
       </c>
@@ -9803,7 +9804,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>39295</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>305</v>
@@ -9849,7 +9850,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39326</v>
       </c>
@@ -9875,7 +9876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>307</v>
@@ -9895,7 +9896,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>39356</v>
       </c>
@@ -9919,7 +9920,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>39387</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>39336</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>68</v>
@@ -9967,7 +9968,7 @@
         <v>39184</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>310</v>
@@ -9987,7 +9988,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>39417</v>
       </c>
@@ -10013,7 +10014,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>311</v>
@@ -10033,7 +10034,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23" t="s">
         <v>313</v>
       </c>
@@ -10051,7 +10052,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>39448</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>105</v>
@@ -10097,7 +10098,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>314</v>
@@ -10115,7 +10116,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="41">
         <v>39479</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>318</v>
@@ -10161,7 +10162,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39508</v>
       </c>
@@ -10181,7 +10182,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>299</v>
@@ -10205,7 +10206,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>319</v>
@@ -10227,7 +10228,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>39539</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>105</v>
@@ -10273,7 +10274,7 @@
         <v>39573</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>322</v>
@@ -10293,7 +10294,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39569</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="41"/>
       <c r="B332" s="15" t="s">
         <v>324</v>
@@ -10339,7 +10340,7 @@
       <c r="J332" s="12"/>
       <c r="K332" s="15"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>39600</v>
       </c>
@@ -10363,7 +10364,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39630</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>39485</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>68</v>
@@ -10411,7 +10412,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>327</v>
@@ -10431,7 +10432,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39661</v>
       </c>
@@ -10457,7 +10458,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>328</v>
@@ -10477,7 +10478,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>39692</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>68</v>
@@ -10527,7 +10528,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="41"/>
       <c r="B341" s="15" t="s">
         <v>330</v>
@@ -10545,7 +10546,7 @@
       <c r="J341" s="12"/>
       <c r="K341" s="15"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>39722</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>333</v>
@@ -10591,7 +10592,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>39753</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>250</v>
@@ -10639,7 +10640,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>335</v>
@@ -10659,7 +10660,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>39783</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>338</v>
@@ -10705,7 +10706,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="48" t="s">
         <v>340</v>
       </c>
@@ -10723,7 +10724,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>39814</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>250</v>
@@ -10771,7 +10772,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>105</v>
@@ -10791,7 +10792,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="41"/>
       <c r="B353" s="15" t="s">
         <v>341</v>
@@ -10811,7 +10812,7 @@
       <c r="J353" s="12"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>39845</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>105</v>
@@ -10857,7 +10858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>178</v>
@@ -10877,7 +10878,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>39873</v>
       </c>
@@ -10901,7 +10902,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>39904</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>349</v>
@@ -10947,7 +10948,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="41">
         <v>39934</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>39938</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>348</v>
@@ -10995,7 +10996,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>351</v>
@@ -11015,7 +11016,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>39965</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>39850</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>105</v>
@@ -11061,7 +11062,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>354</v>
@@ -11081,7 +11082,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>39995</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>215</v>
@@ -11127,7 +11128,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40026</v>
       </c>
@@ -11151,7 +11152,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="41">
         <v>40057</v>
       </c>
@@ -11177,7 +11178,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>356</v>
@@ -11197,7 +11198,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>40087</v>
       </c>
@@ -11221,7 +11222,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40118</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>358</v>
@@ -11267,7 +11268,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="41">
         <v>40148</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>133</v>
@@ -11313,7 +11314,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>360</v>
@@ -11335,7 +11336,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>363</v>
       </c>
@@ -11353,7 +11354,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>40179</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>364</v>
@@ -11397,7 +11398,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="41">
         <v>40210</v>
       </c>
@@ -11421,7 +11422,7 @@
       <c r="J380" s="12"/>
       <c r="K380" s="15"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40238</v>
       </c>
@@ -11447,7 +11448,7 @@
         <v>40240</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>367</v>
@@ -11467,7 +11468,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40269</v>
       </c>
@@ -11493,7 +11494,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>68</v>
@@ -11515,7 +11516,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>68</v>
@@ -11537,7 +11538,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>370</v>
@@ -11557,7 +11558,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>40303</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>68</v>
@@ -11602,7 +11603,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>371</v>
@@ -11619,7 +11620,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40334</v>
       </c>
@@ -11645,7 +11646,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>372</v>
@@ -11662,7 +11663,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>40364</v>
       </c>
@@ -11686,7 +11687,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40395</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>40459</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>374</v>
@@ -11729,7 +11730,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>40426</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>376</v>
@@ -11772,7 +11773,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>40456</v>
       </c>
@@ -11796,7 +11797,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>40487</v>
       </c>
@@ -11824,7 +11825,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>379</v>
@@ -11843,7 +11844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>155</v>
@@ -11862,7 +11863,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>40517</v>
       </c>
@@ -11886,7 +11887,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="48" t="s">
         <v>387</v>
       </c>
@@ -11904,7 +11905,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>40544</v>
       </c>
@@ -11928,7 +11929,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40575</v>
       </c>
@@ -11952,7 +11953,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>40603</v>
       </c>
@@ -11976,7 +11977,7 @@
         <v>40698</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>391</v>
@@ -11993,7 +11994,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="49"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>40634</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>392</v>
@@ -12036,7 +12037,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>40664</v>
       </c>
@@ -12062,7 +12063,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>373</v>
@@ -12081,7 +12082,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>393</v>
@@ -12098,7 +12099,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>40695</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>401</v>
@@ -12143,7 +12144,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>394</v>
@@ -12160,7 +12161,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>40725</v>
       </c>
@@ -12186,7 +12187,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>395</v>
@@ -12203,7 +12204,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>40756</v>
       </c>
@@ -12227,7 +12228,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>40787</v>
       </c>
@@ -12253,7 +12254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>397</v>
@@ -12270,7 +12271,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>40817</v>
       </c>
@@ -12294,7 +12295,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>40848</v>
       </c>
@@ -12318,7 +12319,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="15" t="s">
         <v>390</v>
@@ -12338,7 +12339,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="15" t="s">
         <v>375</v>
@@ -12360,7 +12361,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="15" t="s">
         <v>399</v>
@@ -12380,7 +12381,7 @@
       <c r="J424" s="12"/>
       <c r="K424" s="15"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="15" t="s">
         <v>373</v>
@@ -12402,7 +12403,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>40878</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>180</v>
@@ -12448,7 +12449,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="48" t="s">
         <v>412</v>
       </c>
@@ -12466,7 +12467,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>40909</v>
       </c>
@@ -12488,7 +12489,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>413</v>
@@ -12508,7 +12509,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>40940</v>
       </c>
@@ -12532,7 +12533,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>40969</v>
       </c>
@@ -12556,7 +12557,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>41000</v>
       </c>
@@ -12580,7 +12581,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41030</v>
       </c>
@@ -12604,7 +12605,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>41061</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>373</v>
@@ -12650,7 +12651,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>416</v>
@@ -12670,7 +12671,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41091</v>
       </c>
@@ -12694,7 +12695,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41122</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>41190</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>418</v>
@@ -12740,7 +12741,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41153</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>419</v>
@@ -12786,7 +12787,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>41183</v>
       </c>
@@ -12812,7 +12813,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>390</v>
@@ -12832,7 +12833,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>373</v>
@@ -12854,7 +12855,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>421</v>
@@ -12874,7 +12875,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>41214</v>
       </c>
@@ -12900,7 +12901,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>426</v>
@@ -12919,7 +12920,7 @@
         <v>41225</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>426</v>
@@ -12938,7 +12939,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>427</v>
@@ -12955,7 +12956,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41244</v>
       </c>
@@ -12979,7 +12980,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>431</v>
       </c>
@@ -12997,7 +12998,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41275</v>
       </c>
@@ -13021,7 +13022,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>390</v>
@@ -13038,7 +13039,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>432</v>
@@ -13055,7 +13056,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>41306</v>
       </c>
@@ -13081,7 +13082,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>432</v>
@@ -13098,7 +13099,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41334</v>
       </c>
@@ -13124,7 +13125,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>433</v>
@@ -13141,7 +13142,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>41365</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>379</v>
@@ -13186,7 +13187,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>434</v>
@@ -13203,7 +13204,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>41395</v>
       </c>
@@ -13227,7 +13228,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41426</v>
       </c>
@@ -13251,7 +13252,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>41456</v>
       </c>
@@ -13271,7 +13272,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>41487</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>380</v>
@@ -13314,7 +13315,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="49"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41518</v>
       </c>
@@ -13340,7 +13341,7 @@
         <v>41403</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>441</v>
@@ -13359,7 +13360,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>443</v>
@@ -13376,7 +13377,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41548</v>
       </c>
@@ -13400,7 +13401,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>41579</v>
       </c>
@@ -13422,7 +13423,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>444</v>
@@ -13439,7 +13440,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>41609</v>
       </c>
@@ -13465,7 +13466,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>373</v>
@@ -13487,7 +13488,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>445</v>
@@ -13507,7 +13508,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="48" t="s">
         <v>448</v>
       </c>
@@ -13525,7 +13526,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41640</v>
       </c>
@@ -13549,7 +13550,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>41671</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>41975</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>450</v>
@@ -13592,7 +13593,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>41699</v>
       </c>
@@ -13618,7 +13619,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20" t="s">
         <v>451</v>
@@ -13635,7 +13636,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41730</v>
       </c>
@@ -13659,7 +13660,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>41760</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>453</v>
@@ -13702,7 +13703,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>41791</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>373</v>
@@ -13745,7 +13746,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>458</v>
@@ -13762,7 +13763,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>41821</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>373</v>
@@ -13803,7 +13804,7 @@
         <v>41858</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>78</v>
@@ -13820,7 +13821,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>41852</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>459</v>
@@ -13863,7 +13864,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>41883</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>378</v>
@@ -13904,7 +13905,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>462</v>
@@ -13921,7 +13922,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>41913</v>
       </c>
@@ -13945,7 +13946,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>41944</v>
       </c>
@@ -13969,7 +13970,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
         <v>378</v>
@@ -13986,7 +13987,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>460</v>
@@ -14003,7 +14004,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>41974</v>
       </c>
@@ -14027,7 +14028,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="48" t="s">
         <v>471</v>
       </c>
@@ -14045,7 +14046,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>42005</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>426</v>
@@ -14088,7 +14089,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>373</v>
@@ -14107,7 +14108,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>472</v>
@@ -14124,7 +14125,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>42036</v>
       </c>
@@ -14148,7 +14149,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42064</v>
       </c>
@@ -14172,7 +14173,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>42095</v>
       </c>
@@ -14198,7 +14199,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>476</v>
@@ -14215,7 +14216,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>42125</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>197</v>
@@ -14258,7 +14259,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>42156</v>
       </c>
@@ -14282,7 +14283,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42186</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>478</v>
@@ -14325,7 +14326,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42217</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>184</v>
@@ -14368,7 +14369,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42248</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>479</v>
@@ -14411,7 +14412,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>373</v>
@@ -14430,7 +14431,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>480</v>
@@ -14447,7 +14448,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>42278</v>
       </c>
@@ -14473,7 +14474,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>481</v>
@@ -14490,7 +14491,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>42309</v>
       </c>
@@ -14516,7 +14517,7 @@
         <v>42046</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>373</v>
@@ -14535,7 +14536,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>105</v>
@@ -14552,7 +14553,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>378</v>
@@ -14571,7 +14572,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>373</v>
@@ -14588,7 +14589,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>228</v>
@@ -14605,7 +14606,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>42339</v>
       </c>
@@ -14629,7 +14630,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="48" t="s">
         <v>489</v>
       </c>
@@ -14647,7 +14648,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42370</v>
       </c>
@@ -14671,7 +14672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>495</v>
@@ -14688,7 +14689,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42401</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>294</v>
@@ -14731,7 +14732,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42430</v>
       </c>
@@ -14755,7 +14756,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>42461</v>
       </c>
@@ -14779,7 +14780,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42491</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>443</v>
@@ -14822,7 +14823,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>42522</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>498</v>
@@ -14865,7 +14866,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>42552</v>
       </c>
@@ -14889,7 +14890,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>42583</v>
       </c>
@@ -14915,7 +14916,7 @@
         <v>42651</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>373</v>
@@ -14934,7 +14935,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>500</v>
@@ -14951,7 +14952,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42614</v>
       </c>
@@ -14977,7 +14978,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>510</v>
@@ -14996,7 +14997,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>508</v>
@@ -15013,7 +15014,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>42644</v>
       </c>
@@ -15039,7 +15040,7 @@
         <v>42411</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>373</v>
@@ -15058,7 +15059,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>373</v>
@@ -15075,7 +15076,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>108</v>
@@ -15092,7 +15093,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>42675</v>
       </c>
@@ -15116,7 +15117,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42705</v>
       </c>
@@ -15140,7 +15141,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>509</v>
@@ -15159,7 +15160,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="48" t="s">
         <v>507</v>
       </c>
@@ -15177,7 +15178,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>42736</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>516</v>
@@ -15218,7 +15219,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>42767</v>
       </c>
@@ -15244,7 +15245,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>517</v>
@@ -15261,7 +15262,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42795</v>
       </c>
@@ -15285,7 +15286,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>42826</v>
       </c>
@@ -15309,7 +15310,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>42856</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42887</v>
       </c>
@@ -15355,7 +15356,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>42917</v>
       </c>
@@ -15375,7 +15376,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>42948</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>68</v>
@@ -15416,7 +15417,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>522</v>
@@ -15433,7 +15434,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>42979</v>
       </c>
@@ -15457,7 +15458,7 @@
         <v>43048</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>373</v>
@@ -15474,7 +15475,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>523</v>
@@ -15493,7 +15494,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>524</v>
@@ -15510,7 +15511,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>43009</v>
       </c>
@@ -15534,7 +15535,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>43040</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>43070</v>
       </c>
@@ -15582,7 +15583,7 @@
         <v>43051</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="48" t="s">
         <v>528</v>
       </c>
@@ -15600,7 +15601,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43101</v>
       </c>
@@ -15624,7 +15625,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>390</v>
@@ -15641,7 +15642,7 @@
         <v>43436</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43132</v>
       </c>
@@ -15661,7 +15662,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43160</v>
       </c>
@@ -15681,7 +15682,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>43191</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>83</v>
@@ -15724,7 +15725,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>43221</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>43409</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
         <v>373</v>
@@ -15765,7 +15766,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>43252</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20" t="s">
         <v>420</v>
@@ -15806,7 +15807,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>373</v>
@@ -15823,7 +15824,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43282</v>
       </c>
@@ -15843,7 +15844,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>43313</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>420</v>
@@ -15884,7 +15885,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43344</v>
       </c>
@@ -15904,7 +15905,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43374</v>
       </c>
@@ -15924,7 +15925,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43405</v>
       </c>
@@ -15950,7 +15951,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43435</v>
       </c>
@@ -15974,7 +15975,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="48" t="s">
         <v>539</v>
       </c>
@@ -15992,7 +15993,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43466</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20" t="s">
         <v>390</v>
@@ -16033,7 +16034,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43497</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>43525</v>
       </c>
@@ -16079,7 +16080,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43556</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43586</v>
       </c>
@@ -16125,7 +16126,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>43617</v>
       </c>
@@ -16145,7 +16146,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43647</v>
       </c>
@@ -16165,7 +16166,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>43678</v>
       </c>
@@ -16191,7 +16192,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>373</v>
@@ -16210,7 +16211,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
         <v>373</v>
@@ -16229,7 +16230,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>43709</v>
       </c>
@@ -16249,7 +16250,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>43739</v>
       </c>
@@ -16269,7 +16270,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43770</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>378</v>
@@ -16312,7 +16313,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43800</v>
       </c>
@@ -16338,7 +16339,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>68</v>
@@ -16360,7 +16361,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="48" t="s">
         <v>550</v>
       </c>
@@ -16378,7 +16379,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43831</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43862</v>
       </c>
@@ -16422,7 +16423,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43891</v>
       </c>
@@ -16442,7 +16443,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>43922</v>
       </c>
@@ -16462,7 +16463,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43952</v>
       </c>
@@ -16482,7 +16483,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>43983</v>
       </c>
@@ -16502,7 +16503,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>44013</v>
       </c>
@@ -16524,7 +16525,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>44044</v>
       </c>
@@ -16544,7 +16545,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44075</v>
       </c>
@@ -16564,7 +16565,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>44105</v>
       </c>
@@ -16584,7 +16585,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>44136</v>
       </c>
@@ -16604,7 +16605,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>44166</v>
       </c>
@@ -16628,7 +16629,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="48" t="s">
         <v>553</v>
       </c>
@@ -16646,7 +16647,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>44197</v>
       </c>
@@ -16666,7 +16667,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44228</v>
       </c>
@@ -16686,7 +16687,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44256</v>
       </c>
@@ -16706,7 +16707,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44287</v>
       </c>
@@ -16726,7 +16727,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44317</v>
       </c>
@@ -16746,7 +16747,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44348</v>
       </c>
@@ -16766,7 +16767,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>44378</v>
       </c>
@@ -16786,7 +16787,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44409</v>
       </c>
@@ -16806,7 +16807,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44440</v>
       </c>
@@ -16826,7 +16827,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44470</v>
       </c>
@@ -16846,7 +16847,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44501</v>
       </c>
@@ -16866,7 +16867,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44531</v>
       </c>
@@ -16890,7 +16891,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="48" t="s">
         <v>554</v>
       </c>
@@ -16908,7 +16909,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44562</v>
       </c>
@@ -16928,7 +16929,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>44593</v>
       </c>
@@ -16948,7 +16949,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44621</v>
       </c>
@@ -16972,7 +16973,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>479</v>
@@ -16991,7 +16992,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44652</v>
       </c>
@@ -17011,7 +17012,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44682</v>
       </c>
@@ -17031,7 +17032,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44713</v>
       </c>
@@ -17055,7 +17056,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20" t="s">
         <v>390</v>
@@ -17072,7 +17073,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>378</v>
@@ -17091,7 +17092,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>530</v>
@@ -17110,7 +17111,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44743</v>
       </c>
@@ -17130,7 +17131,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44774</v>
       </c>
@@ -17150,7 +17151,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44805</v>
       </c>
@@ -17170,7 +17171,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44835</v>
       </c>
@@ -17190,7 +17191,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44866</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44896</v>
       </c>
@@ -17236,7 +17237,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="48" t="s">
         <v>561</v>
       </c>
@@ -17254,7 +17255,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>44927</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44958</v>
       </c>
@@ -17306,67 +17307,77 @@
         <v>563</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>44986</v>
       </c>
       <c r="B659" s="20"/>
-      <c r="C659" s="13"/>
+      <c r="C659" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G659" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45017</v>
       </c>
       <c r="B660" s="20"/>
-      <c r="C660" s="13"/>
+      <c r="C660" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G660" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45047</v>
       </c>
       <c r="B661" s="20"/>
-      <c r="C661" s="13"/>
+      <c r="C661" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D661" s="39"/>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G661" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45078</v>
       </c>
-      <c r="B662" s="20"/>
+      <c r="B662" s="20" t="s">
+        <v>530</v>
+      </c>
       <c r="C662" s="13"/>
-      <c r="D662" s="39"/>
+      <c r="D662" s="39">
+        <v>4</v>
+      </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
       <c r="G662" s="42" t="str">
@@ -17376,9 +17387,11 @@
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
-      <c r="K662" s="20"/>
-    </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K662" s="20" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45108</v>
       </c>
@@ -17396,7 +17409,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45139</v>
       </c>
@@ -17414,7 +17427,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45170</v>
       </c>
@@ -17432,7 +17445,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>45200</v>
       </c>
@@ -17450,7 +17463,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>45231</v>
       </c>
@@ -17468,7 +17481,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45261</v>
       </c>
@@ -17486,7 +17499,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45292</v>
       </c>
@@ -17504,7 +17517,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45323</v>
       </c>
@@ -17522,7 +17535,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>45352</v>
       </c>
@@ -17540,7 +17553,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>45383</v>
       </c>
@@ -17558,7 +17571,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45413</v>
       </c>
@@ -17576,7 +17589,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>45444</v>
       </c>
@@ -17594,7 +17607,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45474</v>
       </c>
@@ -17612,7 +17625,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45505</v>
       </c>
@@ -17630,7 +17643,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45536</v>
       </c>
@@ -17648,7 +17661,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45566</v>
       </c>
@@ -17666,7 +17679,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45597</v>
       </c>
@@ -17684,7 +17697,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45627</v>
       </c>
@@ -17702,7 +17715,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45658</v>
       </c>
@@ -17720,7 +17733,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45689</v>
       </c>
@@ -17738,7 +17751,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>45717</v>
       </c>
@@ -17756,7 +17769,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>45748</v>
       </c>
@@ -17774,7 +17787,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45778</v>
       </c>
@@ -17792,7 +17805,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>45809</v>
       </c>
@@ -17810,7 +17823,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>45839</v>
       </c>
@@ -17828,7 +17841,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>45870</v>
       </c>
@@ -17846,7 +17859,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>45901</v>
       </c>
@@ -17864,7 +17877,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>45931</v>
       </c>
@@ -17882,7 +17895,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>45962</v>
       </c>
@@ -17900,7 +17913,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>45992</v>
       </c>
@@ -17918,7 +17931,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>46023</v>
       </c>
@@ -17936,7 +17949,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>46054</v>
       </c>
@@ -17954,7 +17967,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>46082</v>
       </c>
@@ -17972,7 +17985,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>46113</v>
       </c>
@@ -17990,7 +18003,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>46143</v>
       </c>
@@ -18008,7 +18021,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>46174</v>
       </c>
@@ -18026,7 +18039,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>46204</v>
       </c>
@@ -18044,7 +18057,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>46235</v>
       </c>
@@ -18062,7 +18075,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>46266</v>
       </c>
@@ -18080,7 +18093,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18096,7 +18109,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18112,7 +18125,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18128,7 +18141,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18144,7 +18157,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18160,7 +18173,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18176,7 +18189,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18192,7 +18205,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -18208,7 +18221,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -18224,7 +18237,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -18240,7 +18253,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="41"/>
       <c r="B712" s="15"/>
       <c r="C712" s="42"/>
@@ -18271,10 +18284,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18297,28 +18310,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -18331,7 +18344,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18360,7 +18373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>39.514000000000003</v>
       </c>
@@ -18390,17 +18403,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18421,7 +18434,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18448,7 +18461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18474,7 +18487,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18500,7 +18513,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18526,7 +18539,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18552,7 +18565,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18578,7 +18591,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18604,7 +18617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18630,7 +18643,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18650,7 +18663,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18670,7 +18683,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18690,7 +18703,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18711,7 +18724,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18732,7 +18745,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18753,7 +18766,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18774,7 +18787,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18795,7 +18808,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18816,7 +18829,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18837,7 +18850,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18858,7 +18871,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18879,7 +18892,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18900,7 +18913,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18921,7 +18934,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18942,7 +18955,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18963,7 +18976,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18984,7 +18997,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19005,7 +19018,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19026,7 +19039,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19047,7 +19060,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19068,7 +19081,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19089,7 +19102,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19110,7 +19123,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19119,7 +19132,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19128,7 +19141,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19137,7 +19150,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19146,7 +19159,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19155,7 +19168,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19164,7 +19177,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19173,7 +19186,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19182,7 +19195,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19191,7 +19204,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19200,7 +19213,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19209,7 +19222,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19218,7 +19231,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19227,7 +19240,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19236,7 +19249,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19245,7 +19258,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19254,7 +19267,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19263,7 +19276,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19272,7 +19285,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19281,7 +19294,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19290,7 +19303,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19299,7 +19312,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19308,7 +19321,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19317,7 +19330,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19326,7 +19339,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19335,7 +19348,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19344,7 +19357,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19353,7 +19366,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19362,7 +19375,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19371,7 +19384,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA OFELIA.xlsx
+++ b/REGULAR/ANGCAYA OFELIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="566">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2851,7 +2851,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A653" activePane="bottomLeft"/>
       <selection activeCell="F13" sqref="F13"/>
-      <selection pane="bottomLeft" activeCell="B662" sqref="B662"/>
+      <selection pane="bottomLeft" activeCell="J663" sqref="J663"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3018,7 +3018,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>149.42190000000005</v>
+        <v>150.67190000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3028,7 +3028,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>236.11800000000005</v>
+        <v>237.36800000000005</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17374,15 +17374,17 @@
       <c r="B662" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="C662" s="13"/>
+      <c r="C662" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D662" s="39">
         <v>4</v>
       </c>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G662" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
@@ -17395,7 +17397,9 @@
       <c r="A663" s="40">
         <v>45108</v>
       </c>
-      <c r="B663" s="20"/>
+      <c r="B663" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="C663" s="13"/>
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
@@ -17407,7 +17411,9 @@
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
-      <c r="K663" s="20"/>
+      <c r="K663" s="49">
+        <v>45120</v>
+      </c>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
